--- a/biology/Zoologie/Cylindromyia/Cylindromyia.xlsx
+++ b/biology/Zoologie/Cylindromyia/Cylindromyia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cylindromyia est un genre d'insectes de la famille des Tachinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (5 septembre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (5 septembre 2019) :
 sous-genre Cylindromyia (Apinocyptera) Townsend, 1915
 Cylindromyia nana (Townsend, 1915)
 Cylindromyia platensis Guimarães, 1976
@@ -625,7 +639,7 @@
 Cylindromyia vaurohumera (van Emden, 1945)
 Cylindromyia westralica Paramonov, 1956
 Cylindromyia xiphias (Bezzi, 1908)
-Selon BioLib                    (5 septembre 2019)[2] :
+Selon BioLib                    (5 septembre 2019) :
 Cylindromyia aberrans (Villeneuve, 1936)
 Cylindromyia aldrichi Cortés, 1944
 Cylindromyia alticola Aldrich, 1926
@@ -726,7 +740,7 @@
 Cylindromyia westralica Paramonov, 1956
 Cylindromyia xiphias (Bezzi, 1908)
 Cylindromyia xylotina (Egger, 1860)
-Selon Catalogue of Life                                   (5 septembre 2019)[3] :
+Selon Catalogue of Life                                   (5 septembre 2019) :
 Cylindromyia aberrans (Villeneuve, 1936)
 Cylindromyia agnieszkae Kolomiets, 1977
 Cylindromyia aldrichi Cortes, 1944
@@ -851,7 +865,7 @@
 Cylindromyia westralica Paramonov, 1956
 Cylindromyia xiphias (Bezzi, 1908)
 Cylindromyia xylotina (Egger, 1860)
-Selon ITIS      (5 septembre 2019)[1] :
+Selon ITIS      (5 septembre 2019) :
 sous-genre Cylindromyia (Apinocyptera) Townsend, 1915
 sous-genre Cylindromyia (Calocyptera) Herting, 1983
 sous-genre Cylindromyia (Cylindromyia) Meigen, 1803
